--- a/INTLINE/data/534/MOSPI/NAD/AQEGConstant_Q_historical.xlsx
+++ b/INTLINE/data/534/MOSPI/NAD/AQEGConstant_Q_historical.xlsx
@@ -1,402 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="AQEGConstant_Q" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AQEGConstant_Q" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>Agriculture, forestry &amp; fishing</t>
-  </si>
-  <si>
-    <t>Mining &amp; quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, gas ,water supply&amp; other utility services</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Trade, hotels, transport, communication and services related to broadcasting</t>
-  </si>
-  <si>
-    <t>Financial, real estate &amp; professional services</t>
-  </si>
-  <si>
-    <t>GVA at Basic Price</t>
-  </si>
-  <si>
-    <t>GDP</t>
-  </si>
-  <si>
-    <t>GFCE</t>
-  </si>
-  <si>
-    <t>PFCE</t>
-  </si>
-  <si>
-    <t>GFCF</t>
-  </si>
-  <si>
-    <t>CIS</t>
-  </si>
-  <si>
-    <t>Valuables</t>
-  </si>
-  <si>
-    <t>Exports of goods and services</t>
-  </si>
-  <si>
-    <t>Imports of goods and services</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -411,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -430,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -727,3756 +353,4531 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:CZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:104">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:104">
-      <c r="A2" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BI2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture, forestry &amp; fishing</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
+      <c r="AR2" t="inlineStr"/>
+      <c r="AS2" t="inlineStr"/>
+      <c r="AT2" t="inlineStr"/>
+      <c r="AU2" t="inlineStr"/>
+      <c r="AV2" t="inlineStr"/>
+      <c r="AW2" t="inlineStr"/>
+      <c r="AX2" t="inlineStr"/>
+      <c r="AY2" t="inlineStr"/>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
+      <c r="BI2" t="n">
         <v>336108.8378719273</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>269074.1207880359</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>500965.5754418146</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>395797.545600116</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>341199.1850551609</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>274362.4646725311</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>506048.7581687348</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>402678.0967888693</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>354449.5199508297</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>289365.4712700679</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>539360.3341829963</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>426023.0684472685</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>362652.8124029416</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>299493.879488874</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>522894.1505211667</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>420673.4098445122</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>371273.0686838898</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>307806.1948558423</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>511553.1100328717</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>425513.558674451</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>389609.6501896195</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>326769.1629255494</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>549199.1040326965</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>460425.9335325034</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>413332.3812278733</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>348961.8905231766</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>581218.7030899207</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>496509.9207571126</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>433154.0469884992</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>364398.3877607585</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>589159.5095690303</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>491886.4057374636</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>448703.3266604698</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>381401.2575929408</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>620878.1000424343</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>531320.2169816378</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>462006.2796924878</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>393424.1450889694</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>646277.5425981435</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>546323.9241354831</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>472257.9222524644</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>405870.2932017265</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>662688.4694260131</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>568879.8851738394</v>
       </c>
     </row>
-    <row r="3" spans="1:104">
-      <c r="A3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BI3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Mining &amp; quarrying</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
+      <c r="AR3" t="inlineStr"/>
+      <c r="AS3" t="inlineStr"/>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AU3" t="inlineStr"/>
+      <c r="AV3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr"/>
+      <c r="AX3" t="inlineStr"/>
+      <c r="AY3" t="inlineStr"/>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
+      <c r="BI3" t="n">
         <v>67872.92465811588</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>56967.37472409591</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>64848.79493875142</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>71346.27384455278</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>70780.17453086888</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>55618.24084680683</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>64858.7011456037</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>71351.52643934103</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>68133.94000204914</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>55660.8119797462</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>64419.19033575719</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>74892.01693242363</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>79535.74179541458</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>57939.66313666587</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>68662.60691880336</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>82547.44438844475</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>87184.25816122256</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>63469.33457554075</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>75874.85282963741</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>91445.36459303412</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>93381.80838767436</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>67440.70104468099</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>82751.15569890983</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>105674.0462254157</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>84065.05902240596</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>69707.30382443145</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>79546.3304609654</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>96293.36003738226</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>83092.09282881487</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>67688.24730171524</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>79355.70119039871</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>96680.52790526507</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>82696.43186256971</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>65070.65696897149</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>77460.10377887418</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>96539.18979698041</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>67999.62127857757</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>59916.25255731911</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>73346.39452376348</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>92762.03030921821</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>80242.8086392832</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>68626.05776182291</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>80095.42579229458</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>99019.53575361078</v>
       </c>
     </row>
-    <row r="4" spans="1:104">
-      <c r="A4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BI4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
+      <c r="AR4" t="inlineStr"/>
+      <c r="AS4" t="inlineStr"/>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AU4" t="inlineStr"/>
+      <c r="AV4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="inlineStr"/>
+      <c r="AY4" t="inlineStr"/>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
+      <c r="BI4" t="n">
         <v>356022.3076361211</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>333104.4927649191</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>333674.4533133812</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>387183.996802174</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>358339.6806588274</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>373953.3321890926</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>355777.8854692793</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>398803.2082354935</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>383075.9168859457</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>387587.2747714026</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>377185.5845350692</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>412859.9953005102</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>422168.5440218513</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>423756.9200357915</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>389832.8585902719</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>448178.3838647629</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>466223.7299098891</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>472854.5687612802</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>450360.0023609319</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>514411.2861574203</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>512044.792931336</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>508973.8944533304</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>487552.7615936088</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>546192.8951100074</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>511988.602352443</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>553424.4673406032</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>537524.6138821717</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>606490.0795824836</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>565138.6469648184</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>583153.9686860143</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>563759.3491980464</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>616940.2385449483</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>565525.9283571176</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>562811.7842878232</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>544694.9159841466</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>588261.2355249021</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>387448.459863912</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>591928.5331905044</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>590503.7076475689</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>677859.306964412</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>577248.5800622251</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>624891.218833026</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>592268.362614161</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>676414.1953027321</v>
       </c>
     </row>
-    <row r="5" spans="1:104">
-      <c r="A5" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BI5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, gas ,water supply&amp; other utility services</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="n">
         <v>46302.44102535129</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>46466.05263185533</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>46622.94884277773</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>47276.55750001565</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>48479.91923076922</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>47289.98333333333</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>48003.94487179487</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>47861.15256410257</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>49464.09864742331</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>50076.28589239837</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>49637.35918845399</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>50423.25627172435</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>53899.61470123717</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>54880.05047380889</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>53220.85147407212</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>52046.48335088181</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>55231.76083369653</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>57848.30606749269</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>55199.98093207148</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>55877.95216673931</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>62529.07013414922</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>62354.64697575901</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>60850.24723464345</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>60763.03565544834</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>69161.26950024847</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>69358.69971228995</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>66571.44965993945</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>67558.60072014692</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>74424.65169651659</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>76047.56781636755</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>72707.65348276128</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>70967.13474552981</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>79692.96814838728</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>77506.2041677641</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>70544.02046729354</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>72931.73032721721</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>67901.27183588865</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>74996.53908238979</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>71572.79107772894</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>75300.62196438271</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>77296.97134883635</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>81385.19676229653</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>74222.35554201918</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>78693.50014021118</v>
       </c>
     </row>
-    <row r="6" spans="1:104">
-      <c r="A6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
+      <c r="AR6" t="inlineStr"/>
+      <c r="AS6" t="inlineStr"/>
+      <c r="AT6" t="inlineStr"/>
+      <c r="AU6" t="inlineStr"/>
+      <c r="AV6" t="inlineStr"/>
+      <c r="AW6" t="inlineStr"/>
+      <c r="AX6" t="inlineStr"/>
+      <c r="AY6" t="inlineStr"/>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
+      <c r="BI6" t="n">
         <v>186776.6357495846</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>190701.4741328376</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>195723.780537575</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>204132.5719641743</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>189865.8008401821</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>186137.1545351005</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>194069.2482032083</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>209977.9033827101</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>198716.4373236943</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>194457.775528658</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>198469.6843532642</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>209126.9828901965</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>209578.9504929742</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>204911.7921241405</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>206558.3682011531</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>214179.5138850573</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>218252.8273161188</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>205790.4471947025</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>216448.5781114248</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>224843.0783315056</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>234541.3705636185</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>222843.918376381</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>232427.0672103786</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>226632.1714067887</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>235401.3734822016</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>226647.3063290784</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>243990.8482761558</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>258266.1396298114</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>251353.5342190044</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>239218.8802401453</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>260988.3898929038</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>275228.3857562756</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>259728.2271298328</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>240792.0901900881</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>257708.1405432106</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>280451.3336386329</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>131436.9744658869</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>224896.9247574791</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>274752.3701611693</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>331749.1309400328</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>225166.1876390988</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>243071.3006382343</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>267074.2643505305</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>338283.2228094034</v>
       </c>
     </row>
-    <row r="7" spans="1:104">
-      <c r="A7" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="BI7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Trade, hotels, transport, communication and services related to broadcasting</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="inlineStr"/>
+      <c r="AS7" t="inlineStr"/>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AU7" t="inlineStr"/>
+      <c r="AV7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="inlineStr"/>
+      <c r="AY7" t="inlineStr"/>
+      <c r="AZ7" t="inlineStr"/>
+      <c r="BA7" t="inlineStr"/>
+      <c r="BB7" t="inlineStr"/>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
+      <c r="BH7" t="inlineStr"/>
+      <c r="BI7" t="n">
         <v>338657.9179537302</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>340496.5634041592</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>348957.0714756407</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>385005.5144247194</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>374094.9919150067</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>376920.5938868889</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>383184.3196459459</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>416943.0261376481</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>388784.2931363159</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>401894.7553055654</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>417976.099676</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>443406.5232909286</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>432297.6247544062</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>432834.3348739193</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>440657.7048897493</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>501900.3935962386</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>475242.2531825344</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>467654.9785715907</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>484331.2038831857</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>565595.4653672886</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>520052.545755676</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>503823.2601206401</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>522805.0859529261</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>599697.7400645297</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>579122.3925201513</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>557968.2780918083</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>578636.9587995182</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>652691.7736655014</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>625853.5981232806</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>597785.9519617452</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>620625.1021377603</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>694492.6340868404</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>662304.7998925815</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>636189.3451292173</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>661369.9674102064</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>729861.6875191886</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>331582.3400372971</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>516278.2668748502</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>594676.8219898301</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>705141.913989437</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>445454.3427356948</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>565940.2344964931</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>632010.4076835869</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>742199.7082734023</v>
       </c>
     </row>
-    <row r="8" spans="1:104">
-      <c r="A8" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="BI8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Financial, real estate &amp; professional services</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="inlineStr"/>
+      <c r="AS8" t="inlineStr"/>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AU8" t="inlineStr"/>
+      <c r="AV8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="inlineStr"/>
+      <c r="AY8" t="inlineStr"/>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
+      <c r="BH8" t="inlineStr"/>
+      <c r="BI8" t="n">
         <v>404493.0137041393</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>410625.8988906726</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>340343.2385571228</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>375416.4875705019</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>442486.8329055361</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>452821.4265661327</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>377983.1246702941</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>406740.0905442056</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>494882.7839986295</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>524246.0245018441</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>409823.1532756207</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>438454.7360653133</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>540066.6635354812</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>592769.1796959271</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>459477.703059978</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>481400.8920520182</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>594978.0469852366</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>669972.5855265814</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>506287.9353098127</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>523545.8910430832</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>675148.7412558137</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>745019.2409127813</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>532369.6916203249</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>540428.8810329216</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>694096.2600034224</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>740832.5720381371</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>550115.4493698543</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>552145.9772096233</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>735941.1907439663</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>791141.7733938354</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>586811.0566084192</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>600327.7000433597</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>796850.8485331953</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>857081.0380600871</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>616370.4604758556</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>627091.0413144662</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>787924.702625208</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>812107.6961488002</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>679653.5673359546</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>682224.471420091</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>805847.2890592325</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>861972.8599423706</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>708165.197030635</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>711374.5138594978</v>
       </c>
     </row>
-    <row r="9" spans="1:104">
-      <c r="A9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BI9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>GVA at Basic Price</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="inlineStr"/>
+      <c r="AS9" t="inlineStr"/>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AU9" t="inlineStr"/>
+      <c r="AV9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="inlineStr"/>
+      <c r="AY9" t="inlineStr"/>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
+      <c r="BI9" t="n">
         <v>1969132.427870175</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>1913207.136727911</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>2073895.530626651</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>2150711.555363683</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>2074589.17112258</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>2047908.732924123</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>2177528.200031844</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>2246250.990364711</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>2206229.594176178</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>2193897.205392321</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>2314940.946762886</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>2348579.193203927</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>2377153.849041033</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>2379355.815176326</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>2457010.247676192</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>2498611.782879502</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>2560191.206756009</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>2578224.627218567</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>2637004.081335118</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>2716448.28430813</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>2798726.369376291</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>2791993.715902661</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>2835614.057871046</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>2901950.785684054</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>2938107.453561848</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>2946670.048444484</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>3032795.021007642</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>3116597.990716539</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>3147143.007086089</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>3127552.992297765</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>3193097.227230431</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>3266006.550473099</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>3287871.769988335</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>3256509.34556189</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>3297491.818949281</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>3377602.650964125</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>2583801.085785059</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>3064919.76881022</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>3366311.053113839</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>3570041.409086097</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>3052664.161462631</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>3319248.25574538</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>3524785.845056036</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>3708775.738392246</v>
       </c>
     </row>
-    <row r="10" spans="1:104">
-      <c r="A10" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>818189.391770719</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>754404.718881818</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>939159.955818956</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>953044.130752005</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>844828.1976022139</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>790884.132957136</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>972280.096546651</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>997123.889886759</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>898264.3839115039</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>852571.861019664</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>1025700.96286144</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>1051534.49306325</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>981151.729702848</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>932356.151559309</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>1110024.54585755</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>1143161.13909745</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>1030692.14881762</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>992414.993043068</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>1150085.35418418</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>1153543.40158573</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>1066253.02306371</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>1031778.34165251</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>1217872.88465969</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>1219551.92828827</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>1120706.95925133</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>1087305.05970695</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>1242336.15841647</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>1257635.6339949</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>1170119.94511755</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>1169840.97955932</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>1375158.40139649</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>1362929.97267252</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>1267814.71213302</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>1281403.26058521</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>1437429.04142452</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>1493732.91171988</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>1367504.93906384</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>1372289.66275907</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>1546901.36763357</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>1627918.0576195</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>1452609.68738964</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>1496138.19434177</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>1674859.46222706</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>1767767.90256856</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>1578252.18084808</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>1601058.92084641</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>1815417.55898469</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>1886278.0235963</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>1692632.98236455</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>1695666.96582627</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>1829009.0064469</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>1876093.62943741</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>1767035.62399915</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>1803330.5218009</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>1967915.95899207</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>2112795.9049263</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>1917776.57230016</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>1946270.52774781</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>2143478.7302734</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>2102862.817545353</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>2042870.164409465</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>2225135.227973551</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>2365461.399378262</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>2205223.440559079</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>2195945.875120935</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>2344767.213001712</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>2467081.867238048</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>2347396.370736708</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>2357078.866097403</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>2497997.342693486</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>2598897.56139174</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>2535750.58742711</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>2562241.583825141</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>2645947.135172752</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>2783733.232617909</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>2728278.584346896</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>2768087.099670945</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>2836387.393465531</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>3036737.911518122</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>2965087.777365247</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>3035755.825347009</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>3079621.613129943</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>3227728.311887769</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>3146336.282723581</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>3197195.485297825</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>3284991.655580265</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>3516058.351689486</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>3382300.826252723</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>3403644.190329838</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>3489760.889194709</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>3717210.038242801</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>3548958.475238679</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>3546222.834659154</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>3599695.640112644</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>3821080.707721376</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>2703597.877615639</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>3310929.818042515</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>3626220.195899954</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>3917725.20923972</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>3246433.881934009</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>3589178.257907609</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>3821878.30489123</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>4078025.045742397</v>
       </c>
     </row>
-    <row r="11" spans="1:104">
-      <c r="A11" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>GFCE</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>71055.23497987571</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>68275.37393203931</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>73652.41928742611</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>142092.598985159</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>69666.97861518399</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>75595.997901708</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>82897.07217181619</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>166870.342762017</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>99131.3556816302</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>97489.25975927241</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>89399.9032155177</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>157174.575284242</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>100633.75105677</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>112642.847063545</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>113473.899064014</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>168636.945095133</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>93986.3000032401</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>110897.888003823</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>110588.794003812</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>186730.316006437</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>99556.0070367017</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>113139.618041709</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>126313.396046566</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>175012.631064519</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>95566.35889760961</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>115285.147876483</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>125019.214866054</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>177198.711810148</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>103765.643019897</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>137148.978026298</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>127031.917024358</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>159364.977030558</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>113797.543898225</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>124535.165210556</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>127671.659054409</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>182271.954152314</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>116486.38325185</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>145514.366531661</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>154770.554809597</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>179874.906699915</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>164037.036755914</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>125414.136297736</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>148282.619134996</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>183096.877618823</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>163204.894075899</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>140662.099071062</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>154193.446672959</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>221281.438783243</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>161630.002701678</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>144395.598456787</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>234065.44755755</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>216451.357108987</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>186376.814874329</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>181462.761644179</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>251185.905532618</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>244873.207806206</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>202023.975008365</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>195589.339472654</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>256600.389997076</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>204165.1458669115</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>257146.7025830316</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>220375.0984572078</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>286688.0530928493</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>228822.6025094001</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>286153.2379759481</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>189644.9381329358</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>269642.1910609441</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>272180.5898325367</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>279484.7085333101</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>195395.1957082171</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>232764.6242740033</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>278563.6130263772</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>307608.7388773169</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>251973.1859183181</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>216005.3416540881</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>291843.2108934367</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>335329.0485898129</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>272799.1732177755</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>232831.0652796472</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>298932.9560806472</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>343179.3506760307</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>289775.4032693332</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>269710.3629807191</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>363307.4318805121</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>368364.4310763828</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>319987.0576361785</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>293183.7124896729</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>387340.6870723293</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>398077.8198165227</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>331282.775850267</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>318243.9143711319</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>377951.4283296336</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>418371.7670989413</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>345786.0721770548</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>342163.1167145287</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>429240.6401468368</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>322530.059389507</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>344608.7184404313</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>441224.0766779744</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>408788.5328063966</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>351138.0128331611</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>354889.0227141198</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>462316.2192702022</v>
       </c>
     </row>
-    <row r="12" spans="1:104">
-      <c r="A12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>PFCE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>553217.028152185</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>533271.083146698</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>553087.85515215</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>569580.987156687</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>557201.35488545</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>556565.74188558</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>578383.687881095</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>583052.371880135</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>611548.310929361</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>587862.482932097</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>589740.6179318801</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>633967.011926772</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>625765.886097606</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>573475.37408945</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>714034.190111374</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>657152.906102501</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>641584.553262339</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>595801.900243619</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>739290.709302291</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>682163.374278932</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>681603.113032883</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>624945.35403015</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>783938.922037821</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>726631.197035056</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>692630.568021114</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>645830.928019687</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>805595.569024557</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>753926.306022982</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>731164.834162701</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>697596.232155232</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>854420.573190129</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>786516.5311750181</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>762444.778253697</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>752603.827889024</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>882019.901684758</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>831367.610807751</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>828102.618919797</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>812606.551769333</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>940487.79051603</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>887941.52022393</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>859362.912125091</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>873434.7935517461</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>978373.521190785</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>929196.142205018</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>918200.287301474</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>928083.521466175</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>1057010.9666147</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>1002148.28970044</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>984517.988652972</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>974459.676411322</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>1095083.00730929</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>1025260.42563181</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>1025820.30336583</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>1038977.51993444</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>1146781.5963998</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>1071739.43986025</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>1090604.01837436</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>1105845.16365131</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>1200562.12458701</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>1236604.356523749</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>1127292.933233917</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>1264939.500232927</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>1281610.497820703</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>1225156.814579153</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>1224958.834796965</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>1377374.404573733</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>1351601.696178629</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>1321378.636428513</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>1299202.942254232</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>1473208.345847304</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>1463539.421458351</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>1417165.144150905</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>1412804.017012657</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>1504575.60938399</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>1578111.950342279</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>1517932.642857328</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>1513130.304495743</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>1633448.364355927</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>1716907.40422604</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>1623632.808515301</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>1658457.33762422</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>1816561.265398881</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>1801584.593728063</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>1763224.962019021</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>1738953.322817882</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>1892042.088311125</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>1936508.112460348</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>1874397.692783453</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>1888258.487302848</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>2033402.717031807</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>2054385.002359924</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>2009311.747529843</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>2004859.182440903</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>2157091.44088983</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>2088441.974086719</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>1532169.650831714</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>1839176.928789838</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>2169131.080452031</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>2223256.198993741</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>1753399.621291603</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>2031623.807787864</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>2330425.063601913</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>2262405.238315936</v>
       </c>
     </row>
-    <row r="13" spans="1:104">
-      <c r="A13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>GFCF</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>166062.202932565</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>170503.979827161</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>179450.958605034</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>198492.525911864</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>184653.521455295</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>185765.228295673</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>197273.946648172</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>211826.089900058</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>204341.959372193</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>206529.176735889</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>216566.002337298</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>234857.944280023</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>240948.779093891</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>243489.585966386</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>248666.038926277</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>273549.184426085</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>245445.995884651</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>242820.603783226</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>244893.623729288</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>255434.182394193</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>290243.590267114</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>286710.978488388</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>304970.610935361</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>326040.554456808</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>280867.046661315</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>290448.908611785</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>305977.896188551</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>322006.48815274</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>286321.067243673</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>308947.290607223</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>314330.852639813</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>351057.384450471</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>317399.397037691</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>336606.187922016</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>353449.612066673</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>397596.64920377</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>366935.254682099</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>388673.659397758</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>415727.213065874</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>464723.551409369</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>413373.792021601</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>433088.045457904</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>478083.526583247</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>538503.054179468</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>493294.357810943</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>521341.719990758</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>550980.390953828</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>601647.237052761</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>560244.8274235351</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>574873.399390152</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>560864.842379736</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>540618.772809946</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>544768.916926975</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>594055.897458413</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>600032.336644112</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>669445.92480092</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>610808.770175976</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>656752.594826567</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>689912.906687348</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>696954.7909597296</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>727748.9168403633</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>752161.7415899502</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>820867.2241265661</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>763691.7854355896</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>767235.0180571768</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>769338.9285106964</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>845527.4628052798</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>785524.8767485518</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>779670.093744138</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>787578.6243009886</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>842150.7152331959</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>808569.27134256</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>815553.1775705741</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>793636.7231127317</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>860336.9233420865</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>838302.1975924425</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>844359.451346318</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>874854.6829719632</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>934666.7257346085</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>953527.4040822448</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>913934.7874018458</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>933180.017978569</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>986925.0909869144</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>963708.6984343008</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>972543.4458524741</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>1019643.774329372</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>1127183.172298819</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>1102111.838563357</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>1097684.619821763</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>1150660.296094439</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>1190052.487149291</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>1197344.412057318</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>1093791.279567232</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>1135023.491483091</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>1184862.292360519</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>654479.2397979512</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>1044735.372746329</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>1128117.237250382</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>1303947.219475748</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>1063543.320345716</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>1197407.613205663</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>1152013.587607315</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>1371089.70251715</v>
       </c>
     </row>
-    <row r="14" spans="1:104">
-      <c r="A14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>CIS</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>-31891.1363311598</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-102550.237461425</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>99559.6458605177</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-5174.84575992736</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>-906.682393378255</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>-61152.7551058477</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>79253.5096689116</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>12870.3681441114</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>-19719.5793094899</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>-104112.242248491</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>162385.830038546</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>-47826.6727370502</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>22444.5144837202</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>22789.392671876</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>23494.1411867794</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>25201.0339658004</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>7443.8567955482</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>7490.80722946047</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>7727.69641877202</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>8096.90083093061</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>-1488.41558055472</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>-1501.82470290182</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>-1555.46119229019</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>-1635.91592637275</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>8397.474641237721</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>8682.395275552401</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>9000.0442124659</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>9525.60807171588</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>9007.134124266709</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>9380.357568639211</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>9730.9618042655</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>10362.0496283947</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>32727.8744291006</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>34739.9148204104</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>36342.8863189209</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>38530.635093717</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>42336.210056582</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>43594.2953567984</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>45578.3735614434</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>48768.5939300472</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>54866.7125021473</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>57218.8381387327</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>59787.0930175856</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>65315.6222147204</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>73640.474941197</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>75337.3802207555</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>78249.8655515225</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>84293.779862051</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>38471.5490580602</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>38229.5253719783</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>37537.6954107983</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>37232.6595460912</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>59148.3038153862</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>62326.2645576687</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>63686.8438754619</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>68889.6480906912</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>86813.7518034495</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>88936.53503555</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>92326.9536147794</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>52515.895196528</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>49135.3498259284</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>49219.42317691568</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>57112.47234153042</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>48568.68514932766</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>50684.93005921465</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>48221.46425615316</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>54053.03543754858</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>31849.08981382638</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>32224.16597012521</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>31359.36515141121</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>34325.35038420816</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>68881.0095849077</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>69140.1689775009</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>63605.11992025307</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>73124.77443402156</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>58663.81744683024</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>59498.16004876631</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>56667.7225309019</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>64727.14245918087</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>30561.57389705216</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>30378.28623928957</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>29099.75837632047</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>32599.71540846774</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>47837.28042984462</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>51708.81015567103</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>50223.21898198151</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>56666.95680646066</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>63762.31344509349</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>65794.90951080302</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>63606.69284294326</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>69606.87802588491</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>27080.58350069071</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>26950.61491496211</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>26083.07668149154</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>28169.27873692795</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>-1994.841410180797</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>-3047.640324317572</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>-3040.304378276311</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>-3490.068888863364</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>43907.07118129813</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>47530.897733715</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>45049.51602120467</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>51449.87315169502</v>
       </c>
     </row>
-    <row r="15" spans="1:104">
-      <c r="A15" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BI15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Valuables</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
+      <c r="AR15" t="inlineStr"/>
+      <c r="AS15" t="inlineStr"/>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AU15" t="inlineStr"/>
+      <c r="AV15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr"/>
+      <c r="AX15" t="inlineStr"/>
+      <c r="AY15" t="inlineStr"/>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
+      <c r="BI15" t="n">
         <v>59926.72776687082</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>65430.20276586915</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>60517.13887787447</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>67159.26387666557</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>69769.10758151913</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>64580.46099683427</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>60195.95890128874</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>65403.75178333408</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>37116.57356364078</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>37741.66997256133</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>32398.86481707061</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>41621.98541661529</v>
       </c>
-      <c r="BU15">
+      <c r="BU15" t="n">
         <v>49133.3179553938</v>
       </c>
-      <c r="BV15">
+      <c r="BV15" t="n">
         <v>45222.79762370133</v>
       </c>
-      <c r="BW15">
+      <c r="BW15" t="n">
         <v>40230.95916998781</v>
       </c>
-      <c r="BX15">
+      <c r="BX15" t="n">
         <v>53369.71498139399</v>
       </c>
-      <c r="BY15">
+      <c r="BY15" t="n">
         <v>41485.49505331603</v>
       </c>
-      <c r="BZ15">
+      <c r="BZ15" t="n">
         <v>48494.57807042865</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" t="n">
         <v>45507.31206129024</v>
       </c>
-      <c r="CB15">
+      <c r="CB15" t="n">
         <v>50499.02063067303</v>
       </c>
-      <c r="CC15">
+      <c r="CC15" t="n">
         <v>35095.08523284474</v>
       </c>
-      <c r="CD15">
+      <c r="CD15" t="n">
         <v>37226.32501209513</v>
       </c>
-      <c r="CE15">
+      <c r="CE15" t="n">
         <v>35698.26630244391</v>
       </c>
-      <c r="CF15">
+      <c r="CF15" t="n">
         <v>43459.19606461983</v>
       </c>
-      <c r="CG15">
+      <c r="CG15" t="n">
         <v>69319.13541240519</v>
       </c>
-      <c r="CH15">
+      <c r="CH15" t="n">
         <v>51039.54609812431</v>
       </c>
-      <c r="CI15">
+      <c r="CI15" t="n">
         <v>43541.08193091701</v>
       </c>
-      <c r="CJ15">
+      <c r="CJ15" t="n">
         <v>48406.75201274929</v>
       </c>
-      <c r="CK15">
+      <c r="CK15" t="n">
         <v>46449.27308623234</v>
       </c>
-      <c r="CL15">
+      <c r="CL15" t="n">
         <v>50462.13205141295</v>
       </c>
-      <c r="CM15">
+      <c r="CM15" t="n">
         <v>44382.56460631098</v>
       </c>
-      <c r="CN15">
+      <c r="CN15" t="n">
         <v>50410.46433941492</v>
       </c>
-      <c r="CO15">
+      <c r="CO15" t="n">
         <v>43887.30588668257</v>
       </c>
-      <c r="CP15">
+      <c r="CP15" t="n">
         <v>44241.7802803827</v>
       </c>
-      <c r="CQ15">
+      <c r="CQ15" t="n">
         <v>37118.53294031345</v>
       </c>
-      <c r="CR15">
+      <c r="CR15" t="n">
         <v>39279.13876858089</v>
       </c>
-      <c r="CS15">
+      <c r="CS15" t="n">
         <v>3789.907919781898</v>
       </c>
-      <c r="CT15">
+      <c r="CT15" t="n">
         <v>52355.87363343082</v>
       </c>
-      <c r="CU15">
+      <c r="CU15" t="n">
         <v>50916.69415962049</v>
       </c>
-      <c r="CV15">
+      <c r="CV15" t="n">
         <v>100917.7767111056</v>
       </c>
-      <c r="CW15">
+      <c r="CW15" t="n">
         <v>23329.35310305395</v>
       </c>
-      <c r="CX15">
+      <c r="CX15" t="n">
         <v>142227.5701205393</v>
       </c>
-      <c r="CY15">
+      <c r="CY15" t="n">
         <v>77891.49621290193</v>
       </c>
-      <c r="CZ15">
+      <c r="CZ15" t="n">
         <v>51597.46933108567</v>
       </c>
     </row>
-    <row r="16" spans="1:104">
-      <c r="A16" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Exports of goods and services</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>72532.70133270579</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>100236.656935306</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>78506.3784299564</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>72973.81139923621</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>77082.17376971969</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>77775.6142714818</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>79216.6995268686</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>82625.95959299779</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>75225.9336238712</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>92133.8720043254</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>93382.4352175847</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>99929.91566055961</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>109094.469367099</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>89087.492820081</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>104758.129118418</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>122651.139932955</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>129751.896890156</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>103270.315895896</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>128593.047436596</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>141235.722102856</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>151171.922313931</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>105436.616895697</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>124146.429594047</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>143766.499891787</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>175485.333316174</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>132454.633096156</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>153958.76850371</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>173218.100219845</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>174285.363246003</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>137147.973817708</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>173595.660795048</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>210946.12916998</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>190510.986974763</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>194583.731765686</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>223491.784289396</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>276529.690691573</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>246086.90746667</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>247976.593663662</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>285742.516093241</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>336193.394401538</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>312856.469909102</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>334350.701386096</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>321132.683501357</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>375254.306190126</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>321237.533825296</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>335049.211400776</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>364131.922579331</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>401997.969316518</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>414149.442560382</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>433457.861189904</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>399121.539591157</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>385894.446541787</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>371184.446222579</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>377855.540108413</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>384889.074801116</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>419769.539738432</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>401967.275959212</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>418775.204236312</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>487257.335924843</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>506866.9087025597</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>507189.1922947212</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>553499.2080751999</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>576375.6909275193</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>532776.1228845492</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>652251.175379239</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>528616.5367658035</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>576192.149014703</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>550329.8336540902</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" t="n">
         <v>645078.0618716039</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" t="n">
         <v>613839.6071617547</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" t="n">
         <v>659021.4141501238</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" t="n">
         <v>622484.5822418556</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" t="n">
         <v>626568.0929796827</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" t="n">
         <v>635337.9614034024</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" t="n">
         <v>627753.9997590809</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" t="n">
         <v>582461.4722922089</v>
       </c>
-      <c r="BZ16">
+      <c r="BZ16" t="n">
         <v>596858.6141042283</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" t="n">
         <v>578983.4565203242</v>
       </c>
-      <c r="CB16">
+      <c r="CB16" t="n">
         <v>611978.0933868522</v>
       </c>
-      <c r="CC16">
+      <c r="CC16" t="n">
         <v>603117.8098636516</v>
       </c>
-      <c r="CD16">
+      <c r="CD16" t="n">
         <v>611524.2701659113</v>
       </c>
-      <c r="CE16">
+      <c r="CE16" t="n">
         <v>618791.5466735589</v>
       </c>
-      <c r="CF16">
+      <c r="CF16" t="n">
         <v>654988.9526962473</v>
       </c>
-      <c r="CG16">
+      <c r="CG16" t="n">
         <v>626932.7017885768</v>
       </c>
-      <c r="CH16">
+      <c r="CH16" t="n">
         <v>639985.6481756808</v>
       </c>
-      <c r="CI16">
+      <c r="CI16" t="n">
         <v>646679.4391073223</v>
       </c>
-      <c r="CJ16">
+      <c r="CJ16" t="n">
         <v>688414.0089932327</v>
       </c>
-      <c r="CK16">
+      <c r="CK16" t="n">
         <v>684204.3797157146</v>
       </c>
-      <c r="CL16">
+      <c r="CL16" t="n">
         <v>717628.2544918905</v>
       </c>
-      <c r="CM16">
+      <c r="CM16" t="n">
         <v>744836.5693475538</v>
       </c>
-      <c r="CN16">
+      <c r="CN16" t="n">
         <v>765811.2790664897</v>
       </c>
-      <c r="CO16">
+      <c r="CO16" t="n">
         <v>703240.4520525883</v>
       </c>
-      <c r="CP16">
+      <c r="CP16" t="n">
         <v>705236.0988297308</v>
       </c>
-      <c r="CQ16">
+      <c r="CQ16" t="n">
         <v>706562.415626687</v>
       </c>
-      <c r="CR16">
+      <c r="CR16" t="n">
         <v>698570.4147096999</v>
       </c>
-      <c r="CS16">
+      <c r="CS16" t="n">
         <v>523643.113785584</v>
       </c>
-      <c r="CT16">
+      <c r="CT16" t="n">
         <v>659753.3522103032</v>
       </c>
-      <c r="CU16">
+      <c r="CU16" t="n">
         <v>645694.2330023064</v>
       </c>
-      <c r="CV16">
+      <c r="CV16" t="n">
         <v>724592.2501009621</v>
       </c>
-      <c r="CW16">
+      <c r="CW16" t="n">
         <v>737146.0070875697</v>
       </c>
-      <c r="CX16">
+      <c r="CX16" t="n">
         <v>795993.8891269959</v>
       </c>
-      <c r="CY16">
+      <c r="CY16" t="n">
         <v>794989.5489616299</v>
       </c>
-      <c r="CZ16">
+      <c r="CZ16" t="n">
         <v>846714.5434953116</v>
       </c>
     </row>
-    <row r="17" spans="1:104">
-      <c r="A17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Imports of goods and services</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>81319.6099988051</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>96899.4198810017</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>95917.7066343164</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>99480.2760974448</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>96681.19640243681</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>95172.6108060694</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>105522.784042798</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>125560.422991492</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>139494.014817745</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>129287.888735987</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>124087.065741451</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>118231.766522435</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>120655.716416888</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>130221.733775003</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>140553.36186178</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>155408.678817906</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>133520.133173512</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>141813.654482438</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>148984.759949556</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>147619.325398695</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>149188.889568833</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>149223.954970142</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>143497.979456406</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>146866.321682138</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" t="n">
         <v>150220.41279987</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" t="n">
         <v>159115.841031471</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" t="n">
         <v>166731.677215372</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" t="n">
         <v>183343.745334632</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" t="n">
         <v>177062.323599809</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" t="n">
         <v>179398.645586893</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" t="n">
         <v>187358.607483592</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" t="n">
         <v>207144.269221082</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" t="n">
         <v>181904.970497327</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" t="n">
         <v>224205.225777981</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" t="n">
         <v>254192.133998515</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" t="n">
         <v>257339.704016132</v>
       </c>
-      <c r="AL17">
+      <c r="AL17" t="n">
         <v>288173.694415533</v>
       </c>
-      <c r="AM17">
+      <c r="AM17" t="n">
         <v>287330.965812577</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" t="n">
         <v>311512.698427944</v>
       </c>
-      <c r="AO17">
+      <c r="AO17" t="n">
         <v>326744.501573935</v>
       </c>
-      <c r="AP17">
+      <c r="AP17" t="n">
         <v>357100.012161418</v>
       </c>
-      <c r="AQ17">
+      <c r="AQ17" t="n">
         <v>377992.705086258</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" t="n">
         <v>367198.425866763</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" t="n">
         <v>372485.886774281</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" t="n">
         <v>363037.743104835</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" t="n">
         <v>381675.082355869</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" t="n">
         <v>410117.542908059</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" t="n">
         <v>466710.383757088</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" t="n">
         <v>485583.671297871</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" t="n">
         <v>557766.099861266</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" t="n">
         <v>510362.616485287</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" t="n">
         <v>431841.979948476</v>
       </c>
-      <c r="BB17">
+      <c r="BB17" t="n">
         <v>444393.357221505</v>
       </c>
-      <c r="BC17">
+      <c r="BC17" t="n">
         <v>466944.365203456</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" t="n">
         <v>511953.990055958</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" t="n">
         <v>524024.527845011</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" t="n">
         <v>552663.982614591</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" t="n">
         <v>551925.829689634</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" t="n">
         <v>561504.8857158</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" t="n">
         <v>643806.2865597456</v>
       </c>
-      <c r="BJ17">
+      <c r="BJ17" t="n">
         <v>640633.5731652926</v>
       </c>
-      <c r="BK17">
+      <c r="BK17" t="n">
         <v>713920.5627336632</v>
       </c>
-      <c r="BL17">
+      <c r="BL17" t="n">
         <v>717193.5775412981</v>
       </c>
-      <c r="BM17">
+      <c r="BM17" t="n">
         <v>677719.5852658448</v>
       </c>
-      <c r="BN17">
+      <c r="BN17" t="n">
         <v>745413.7411886333</v>
       </c>
-      <c r="BO17">
+      <c r="BO17" t="n">
         <v>736031.6048150746</v>
       </c>
-      <c r="BP17">
+      <c r="BP17" t="n">
         <v>719914.208183411</v>
       </c>
-      <c r="BQ17">
+      <c r="BQ17" t="n">
         <v>657363.3764294109</v>
       </c>
-      <c r="BR17">
+      <c r="BR17" t="n">
         <v>684552.4919152021</v>
       </c>
-      <c r="BS17">
+      <c r="BS17" t="n">
         <v>632540.6644366619</v>
       </c>
-      <c r="BT17">
+      <c r="BT17" t="n">
         <v>670098.5507193089</v>
       </c>
-      <c r="BU17">
+      <c r="BU17" t="n">
         <v>663204.8895195345</v>
       </c>
-      <c r="BV17">
+      <c r="BV17" t="n">
         <v>681671.4257048829</v>
       </c>
-      <c r="BW17">
+      <c r="BW17" t="n">
         <v>680646.1548576845</v>
       </c>
-      <c r="BX17">
+      <c r="BX17" t="n">
         <v>642072.7908775142</v>
       </c>
-      <c r="BY17">
+      <c r="BY17" t="n">
         <v>624902.04032258</v>
       </c>
-      <c r="BZ17">
+      <c r="BZ17" t="n">
         <v>656932.9697597421</v>
       </c>
-      <c r="CA17">
+      <c r="CA17" t="n">
         <v>614329.5465080816</v>
       </c>
-      <c r="CB17">
+      <c r="CB17" t="n">
         <v>615375.2163605884</v>
       </c>
-      <c r="CC17">
+      <c r="CC17" t="n">
         <v>627452.8538864519</v>
       </c>
-      <c r="CD17">
+      <c r="CD17" t="n">
         <v>656241.3993634342</v>
       </c>
-      <c r="CE17">
+      <c r="CE17" t="n">
         <v>679557.0112766647</v>
       </c>
-      <c r="CF17">
+      <c r="CF17" t="n">
         <v>658341.5166239112</v>
       </c>
-      <c r="CG17">
+      <c r="CG17" t="n">
         <v>763828.3948743485</v>
       </c>
-      <c r="CH17">
+      <c r="CH17" t="n">
         <v>725604.2118153461</v>
       </c>
-      <c r="CI17">
+      <c r="CI17" t="n">
         <v>775329.7863703714</v>
       </c>
-      <c r="CJ17">
+      <c r="CJ17" t="n">
         <v>813511.4147391374</v>
       </c>
-      <c r="CK17">
+      <c r="CK17" t="n">
         <v>804000.2748855269</v>
       </c>
-      <c r="CL17">
+      <c r="CL17" t="n">
         <v>856914.6771980156</v>
       </c>
-      <c r="CM17">
+      <c r="CM17" t="n">
         <v>869202.810349956</v>
       </c>
-      <c r="CN17">
+      <c r="CN17" t="n">
         <v>819742.8086270476</v>
       </c>
-      <c r="CO17">
+      <c r="CO17" t="n">
         <v>877978.7338271562</v>
       </c>
-      <c r="CP17">
+      <c r="CP17" t="n">
         <v>838150.4190258596</v>
       </c>
-      <c r="CQ17">
+      <c r="CQ17" t="n">
         <v>807150.3443215037</v>
       </c>
-      <c r="CR17">
+      <c r="CR17" t="n">
         <v>798306.2151373125</v>
       </c>
-      <c r="CS17">
+      <c r="CS17" t="n">
         <v>517453.7938706135</v>
       </c>
-      <c r="CT17">
+      <c r="CT17" t="n">
         <v>688185.8925917387</v>
       </c>
-      <c r="CU17">
+      <c r="CU17" t="n">
         <v>765424.3890727193</v>
       </c>
-      <c r="CV17">
+      <c r="CV17" t="n">
         <v>891807.1925426661</v>
       </c>
-      <c r="CW17">
+      <c r="CW17" t="n">
         <v>833454.9499822913</v>
       </c>
-      <c r="CX17">
+      <c r="CX17" t="n">
         <v>970005.5715046406</v>
       </c>
-      <c r="CY17">
+      <c r="CY17" t="n">
         <v>1022436.000408003</v>
       </c>
-      <c r="CZ17">
+      <c r="CZ17" t="n">
         <v>1052296.77897792</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>